--- a/docs/~配置文件请存放于此处 (去除~即可导出示例).xlsx
+++ b/docs/~配置文件请存放于此处 (去除~即可导出示例).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\SlidingSea\xlsx2json\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\SlidingSea\xlsx2json\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D916EDAE-7806-4C71-8825-2A56A814171E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C9094B-399D-4ECC-987D-620E119C6934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6135" yWindow="4575" windowWidth="28800" windowHeight="15345" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31365" yWindow="3135" windowWidth="24315" windowHeight="12390" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="~工具使用指南" sheetId="5" r:id="rId1"/>
@@ -1096,38 +1096,6 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>`array`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">  数组，同JS数组一致。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
       <t>`id`</t>
     </r>
     <r>
@@ -2446,6 +2414,45 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>key1:12,key2:213</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 表明以英文符号</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>`()`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="黑体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>括号包裹的部分不会导出，可以作为编辑状态下提示的表名或备注。</t>
+    </r>
+  </si>
+  <si>
     <r>
       <t>*</t>
     </r>
@@ -2465,16 +2472,16 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>`object`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t>`bool`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
     </r>
     <r>
       <rPr>
@@ -2484,16 +2491,127 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>对象，同</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>JS</t>
+      <t>布尔。在确认类型的非数组情况下，只要值不为空、false、0、undefined、null、no都认为是真值。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Fira Code Var"/>
+      </rPr>
+      <t xml:space="preserve"> 首列首行（表的第一格）如果以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Fira Code Var"/>
+      </rPr>
+      <t>`#`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Fira Code Var"/>
+      </rPr>
+      <t>开头，那么表格式将变为垂直模式。</t>
+    </r>
+  </si>
+  <si>
+    <t>#垂直表测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value2#string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value3#string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>world</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试数据1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试数据2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试数据3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据1</t>
+  </si>
+  <si>
+    <t>数据2</t>
+  </si>
+  <si>
+    <t>数据3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`{}`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> object</t>
     </r>
     <r>
       <rPr>
@@ -2503,16 +2621,16 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>对象一致。键名可以不用引号，但不能使用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t>JSON</t>
+      <t>对象，同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>JS</t>
     </r>
     <r>
       <rPr>
@@ -2522,79 +2640,16 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>中所用符号，包括英文状态下逗号，冒号等</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key1:12,key2:213</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> 表明以英文符号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>`()`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="黑体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>括号包裹的部分不会导出，可以作为编辑状态下提示的表名或备注。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>`bool`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
+      <t>对象一致。键名可以不用引号，但不能使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
+      </rPr>
+      <t>JSON</t>
     </r>
     <r>
       <rPr>
@@ -2604,7 +2659,7 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>布尔。在确认类型的非数组情况下，只要值不为空、false、0、undefined、null、no都认为是真值。</t>
+      <t>中所用符号，包括英文状态下逗号，冒号等</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2616,83 +2671,78 @@
       <rPr>
         <sz val="15"/>
         <color rgb="FFCCCCCC"/>
-        <rFont val="Fira Code Var"/>
-      </rPr>
-      <t xml:space="preserve"> 首列首行（表的第一格）如果以</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Fira Code Var"/>
-      </rPr>
-      <t>`#`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Fira Code Var"/>
-      </rPr>
-      <t>开头，那么表格式将变为垂直模式。</t>
-    </r>
-  </si>
-  <si>
-    <t>#垂直表测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value2#string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>value3#string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>world</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aaa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试数据1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试数据2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试数据3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据1</t>
-  </si>
-  <si>
-    <t>数据2</t>
-  </si>
-  <si>
-    <t>数据3</t>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`[]`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>组，同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>JS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>组一致。</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2700,7 +2750,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2823,6 +2873,20 @@
       <sz val="15"/>
       <color rgb="FFCE9178"/>
       <name val="Fira Code Var"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="4">
@@ -3200,7 +3264,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -3247,7 +3311,7 @@
     </row>
     <row r="4" spans="1:13" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
@@ -3287,7 +3351,7 @@
     </row>
     <row r="12" spans="1:13" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
@@ -3302,7 +3366,7 @@
     </row>
     <row r="15" spans="1:13" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
@@ -3312,142 +3376,142 @@
     </row>
     <row r="17" spans="1:1" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>207</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
@@ -3455,42 +3519,42 @@
     </row>
     <row r="50" spans="1:13" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -3537,7 +3601,7 @@
     </row>
     <row r="64" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -3584,7 +3648,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -3975,7 +4039,7 @@
         <v>109</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>177</v>
@@ -5036,10 +5100,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>149</v>
@@ -5048,12 +5112,12 @@
         <v>150</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>151</v>
@@ -5065,41 +5129,41 @@
         <v>123</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>

--- a/docs/~配置文件请存放于此处 (去除~即可导出示例).xlsx
+++ b/docs/~配置文件请存放于此处 (去除~即可导出示例).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\SlidingSea\xlsx2json\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xlsx2json\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C9094B-399D-4ECC-987D-620E119C6934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EA8437-30C7-466A-8900-7B9877B5BF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31365" yWindow="3135" windowWidth="24315" windowHeight="12390" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29535" yWindow="735" windowWidth="23655" windowHeight="13215" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="~工具使用指南" sheetId="5" r:id="rId1"/>
@@ -20,17 +20,28 @@
     <sheet name="DemoArrayMaster" sheetId="3" r:id="rId5"/>
     <sheet name="DemoVertical(垂直表)" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="265">
   <si>
     <t>示例主表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1718,56 +1729,6 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> 列类型 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>`留空不填写`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> 或 以</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>`~`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>开头 则不导出此列。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
       <t xml:space="preserve"> 首列不设置具体数据配置，首列的数据行以</t>
     </r>
     <r>
@@ -2496,35 +2457,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Fira Code Var"/>
-      </rPr>
-      <t xml:space="preserve"> 首列首行（表的第一格）如果以</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFCE9178"/>
-        <rFont val="Fira Code Var"/>
-      </rPr>
-      <t>`#`</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FFCCCCCC"/>
-        <rFont val="Fira Code Var"/>
-      </rPr>
-      <t>开头，那么表格式将变为垂直模式。</t>
-    </r>
-  </si>
-  <si>
     <t>#垂直表测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2742,6 +2674,251 @@
         <charset val="136"/>
       </rPr>
       <t>组一致。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Fira Code Var"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>首列首行（表的第一格）如果以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>`#`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开头，那么表格式将变为垂直模式。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Fira Code Var"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`~`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`_`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>均可以在配置文件中修改以便符合各自配置符号习惯。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>列类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>留空不填写</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>以</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCE9178"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>`~`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>开头</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFCCCCCC"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>则不导出此列。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2750,7 +2927,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2871,11 +3048,6 @@
     </font>
     <font>
       <sz val="15"/>
-      <color rgb="FFCE9178"/>
-      <name val="Fira Code Var"/>
-    </font>
-    <font>
-      <sz val="15"/>
       <color rgb="FFCCCCCC"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
@@ -2887,6 +3059,26 @@
       <name val="Microsoft JhengHei"/>
       <family val="2"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FFCE9178"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="5" tint="0.39997558519241921"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="5" tint="0.39997558519241921"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="4">
@@ -3251,7 +3443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0485D91-A2DA-4028-9755-EBF1399981B4}">
-  <dimension ref="A1:M69"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:M2"/>
@@ -3264,7 +3456,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -3351,7 +3543,7 @@
     </row>
     <row r="12" spans="1:13" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
@@ -3366,7 +3558,7 @@
     </row>
     <row r="15" spans="1:13" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
@@ -3376,12 +3568,12 @@
     </row>
     <row r="17" spans="1:1" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="24.75" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
@@ -3406,7 +3598,7 @@
     </row>
     <row r="25" spans="1:1" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
@@ -3454,44 +3646,49 @@
         <v>220</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>221</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="20.25" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="21.75" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
@@ -3501,25 +3698,25 @@
     </row>
     <row r="46" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" s="3"/>
-    </row>
-    <row r="50" spans="1:13" ht="21.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="6" t="s">
-        <v>237</v>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3"/>
+    </row>
+    <row r="49" spans="1:13" ht="21.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
@@ -3547,15 +3744,25 @@
         <v>234</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="19.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="8" t="s">
-        <v>241</v>
-      </c>
+    <row r="60" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
@@ -3584,8 +3791,10 @@
       <c r="L62" s="8"/>
       <c r="M62" s="8"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A63" s="8"/>
+    <row r="63" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="8" t="s">
+        <v>238</v>
+      </c>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
       <c r="D63" s="8"/>
@@ -3599,10 +3808,8 @@
       <c r="L63" s="8"/>
       <c r="M63" s="8"/>
     </row>
-    <row r="64" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="8" t="s">
-        <v>239</v>
-      </c>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
       <c r="D64" s="8"/>
@@ -3632,7 +3839,9 @@
       <c r="M65" s="8"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A66" s="8"/>
+      <c r="A66" s="8" t="s">
+        <v>239</v>
+      </c>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
       <c r="D66" s="8"/>
@@ -3647,9 +3856,7 @@
       <c r="M66" s="8"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A67" s="8" t="s">
-        <v>240</v>
-      </c>
+      <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
       <c r="D67" s="8"/>
@@ -3678,27 +3885,12 @@
       <c r="L68" s="8"/>
       <c r="M68" s="8"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="8"/>
-      <c r="M69" s="8"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A67:M69"/>
+    <mergeCell ref="A66:M68"/>
     <mergeCell ref="A1:M2"/>
-    <mergeCell ref="A61:M63"/>
-    <mergeCell ref="A64:M66"/>
+    <mergeCell ref="A60:M62"/>
+    <mergeCell ref="A63:M65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4039,7 +4231,7 @@
         <v>109</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>177</v>
@@ -5100,10 +5292,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>149</v>
@@ -5112,12 +5304,12 @@
         <v>150</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>151</v>
@@ -5129,41 +5321,41 @@
         <v>123</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>255</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
